--- a/批量导入测试数据.xlsx
+++ b/批量导入测试数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cursor\work\zuowei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68438775-775B-4336-8694-B95AA3FDBBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07532037-104A-426A-9561-DD71C5AF0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1130" yWindow="950" windowWidth="24470" windowHeight="14330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>姓名</t>
   </si>
@@ -250,6 +250,26 @@
   </si>
   <si>
     <t>学员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新学员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复训未上密训学员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密训班学员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播大使</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +655,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,9 +668,10 @@
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +690,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -689,8 +713,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -709,8 +736,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -729,8 +759,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -749,8 +782,11 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -769,8 +805,11 @@
       <c r="F6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -789,8 +828,11 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -809,8 +851,11 @@
       <c r="F8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -829,8 +874,11 @@
       <c r="F9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -849,8 +897,11 @@
       <c r="F10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -869,8 +920,11 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -889,8 +943,11 @@
       <c r="F12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -909,8 +966,11 @@
       <c r="F13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -929,8 +989,11 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -949,8 +1012,11 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
